--- a/raw_data/20200818_saline/20200818_Sensor3_Test_19.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_19.xlsx
@@ -1,945 +1,1361 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9605A4B5-D6AC-4113-AD1B-FE07F751E963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>16758.491263</v>
       </c>
       <c r="B2" s="1">
-        <v>4.655136</v>
+        <v>4.6551359999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>1140.650000</v>
+        <v>1140.6500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-257.344000</v>
+        <v>-257.34399999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>16768.866567</v>
+        <v>16768.866567000001</v>
       </c>
       <c r="G2" s="1">
-        <v>4.658018</v>
+        <v>4.6580180000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1162.360000</v>
+        <v>1162.3599999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.618000</v>
+        <v>-214.61799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>16779.388697</v>
+        <v>16779.388696999999</v>
       </c>
       <c r="L2" s="1">
-        <v>4.660941</v>
+        <v>4.6609410000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1188.190000</v>
+        <v>1188.19</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.193000</v>
+        <v>-149.19300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>16789.888013</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.663858</v>
+        <v>4.6638580000000003</v>
       </c>
       <c r="R2" s="1">
-        <v>1195.830000</v>
+        <v>1195.83</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.263000</v>
+        <v>-127.26300000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>16800.425059</v>
+        <v>16800.425059000001</v>
       </c>
       <c r="V2" s="1">
         <v>4.666785</v>
       </c>
       <c r="W2" s="1">
-        <v>1202.810000</v>
+        <v>1202.81</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.569000</v>
+        <v>-106.569</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>16810.878208</v>
+        <v>16810.878207999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.669688</v>
+        <v>4.6696879999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1209.840000</v>
+        <v>1209.8399999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.696900</v>
+        <v>-89.696899999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>16821.135233</v>
+        <v>16821.135233000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.672538</v>
+        <v>4.6725380000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>1214.270000</v>
+        <v>1214.27</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.253200</v>
+        <v>-85.253200000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>16831.898660</v>
+        <v>16831.898659999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.675527</v>
+        <v>4.6755269999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1221.240000</v>
+        <v>1221.24</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.937800</v>
+        <v>-88.937799999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>16842.392054</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.678442</v>
+        <v>4.6784420000000004</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1229.060000</v>
+        <v>1229.06</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.041000</v>
+        <v>-101.041</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>16853.382377</v>
+        <v>16853.382377000002</v>
       </c>
       <c r="AU2" s="1">
         <v>4.681495</v>
       </c>
       <c r="AV2" s="1">
-        <v>1238.950000</v>
+        <v>1238.95</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.643000</v>
+        <v>-120.643</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>16864.531493</v>
+        <v>16864.531492999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.684592</v>
+        <v>4.6845920000000003</v>
       </c>
       <c r="BA2" s="1">
-        <v>1247.370000</v>
+        <v>1247.3699999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.183000</v>
+        <v>-138.18299999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>16875.514893</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.687643</v>
+        <v>4.6876429999999996</v>
       </c>
       <c r="BF2" s="1">
-        <v>1287.330000</v>
+        <v>1287.33</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.281000</v>
+        <v>-220.28100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>16886.892091</v>
+        <v>16886.892091000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.690803</v>
+        <v>4.6908029999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1356.710000</v>
+        <v>1356.71</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.061000</v>
+        <v>-357.06099999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>16897.695950</v>
+        <v>16897.695950000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.693804</v>
+        <v>4.6938040000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1470.540000</v>
+        <v>1470.54</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.168000</v>
+        <v>-580.16800000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>16908.058368</v>
+        <v>16908.058368000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.696683</v>
+        <v>4.6966830000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1602.490000</v>
+        <v>1602.49</v>
       </c>
       <c r="BV2" s="1">
-        <v>-832.637000</v>
+        <v>-832.63699999999994</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>16919.155856</v>
+        <v>16919.155856000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.699766</v>
+        <v>4.6997660000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1753.850000</v>
+        <v>1753.85</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1107.480000</v>
+        <v>-1107.48</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>16930.226562</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.702841</v>
+        <v>4.7028410000000003</v>
       </c>
       <c r="CE2" s="1">
-        <v>2173.830000</v>
+        <v>2173.83</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1776.340000</v>
+        <v>-1776.34</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>16758.925748</v>
+        <v>16758.925748000001</v>
       </c>
       <c r="B3" s="1">
-        <v>4.655257</v>
+        <v>4.6552569999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1140.730000</v>
+        <v>1140.73</v>
       </c>
       <c r="D3" s="1">
-        <v>-257.247000</v>
+        <v>-257.24700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>16768.976182</v>
+        <v>16768.976181999999</v>
       </c>
       <c r="G3" s="1">
-        <v>4.658049</v>
+        <v>4.6580490000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1161.810000</v>
+        <v>1161.81</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.463000</v>
+        <v>-215.46299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>16779.762681</v>
       </c>
       <c r="L3" s="1">
-        <v>4.661045</v>
+        <v>4.6610449999999997</v>
       </c>
       <c r="M3" s="1">
-        <v>1188.400000</v>
+        <v>1188.4000000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.403000</v>
+        <v>-149.40299999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>16790.242652</v>
+        <v>16790.242652000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.663956</v>
+        <v>4.6639559999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.200000</v>
+        <v>-127.2</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>16800.800989</v>
+        <v>16800.800988999999</v>
       </c>
       <c r="V3" s="1">
-        <v>4.666889</v>
+        <v>4.6668890000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>1202.800000</v>
+        <v>1202.8</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.481000</v>
+        <v>-106.48099999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>16811.321631</v>
+        <v>16811.321630999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.669812</v>
+        <v>4.6698120000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>1209.940000</v>
+        <v>1209.94</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.813100</v>
+        <v>-89.813100000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>16821.847265</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.672735</v>
+        <v>4.6727350000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>1214.210000</v>
+        <v>1214.21</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.416200</v>
+        <v>-85.416200000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>16832.240403</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.675622</v>
+        <v>4.6756219999999997</v>
       </c>
       <c r="AL3" s="1">
-        <v>1221.220000</v>
+        <v>1221.22</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.959900</v>
+        <v>-88.959900000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>16842.757077</v>
+        <v>16842.757076999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.678544</v>
+        <v>4.6785439999999996</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1229.080000</v>
+        <v>1229.08</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.040000</v>
+        <v>-101.04</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>16853.752920</v>
+        <v>16853.752919999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.681598</v>
+        <v>4.6815980000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1238.950000</v>
+        <v>1238.95</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.668000</v>
+        <v>-120.66800000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>16865.237256</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.684788</v>
+        <v>4.6847880000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1247.330000</v>
+        <v>1247.33</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.188000</v>
+        <v>-138.18799999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>16876.197353</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.687833</v>
+        <v>4.6878330000000004</v>
       </c>
       <c r="BF3" s="1">
-        <v>1287.290000</v>
+        <v>1287.29</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.282000</v>
+        <v>-220.28200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>16887.331084</v>
+        <v>16887.331084000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>4.690925</v>
       </c>
       <c r="BK3" s="1">
-        <v>1356.670000</v>
+        <v>1356.67</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.065000</v>
+        <v>-357.065</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>16898.135933</v>
+        <v>16898.135933000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.693927</v>
+        <v>4.6939270000000004</v>
       </c>
       <c r="BP3" s="1">
-        <v>1470.540000</v>
+        <v>1470.54</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.138000</v>
+        <v>-580.13800000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>16908.512703</v>
@@ -948,482 +1364,482 @@
         <v>4.696809</v>
       </c>
       <c r="BU3" s="1">
-        <v>1602.460000</v>
+        <v>1602.46</v>
       </c>
       <c r="BV3" s="1">
-        <v>-832.834000</v>
+        <v>-832.83399999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>16919.642432</v>
+        <v>16919.642432000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.699901</v>
+        <v>4.6999009999999997</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1753.910000</v>
+        <v>1753.91</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1107.480000</v>
+        <v>-1107.48</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>16930.819815</v>
+        <v>16930.819814999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.703006</v>
+        <v>4.7030060000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>2173.170000</v>
+        <v>2173.17</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1774.080000</v>
+        <v>-1774.08</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>16759.241205</v>
+        <v>16759.241204999998</v>
       </c>
       <c r="B4" s="1">
-        <v>4.655345</v>
+        <v>4.6553449999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>1140.670000</v>
+        <v>1140.67</v>
       </c>
       <c r="D4" s="1">
-        <v>-257.188000</v>
+        <v>-257.18799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>16769.304534</v>
+        <v>16769.304533999999</v>
       </c>
       <c r="G4" s="1">
-        <v>4.658140</v>
+        <v>4.6581400000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>1161.850000</v>
+        <v>1161.8499999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.456000</v>
+        <v>-215.45599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>16780.110872</v>
+        <v>16780.110872000001</v>
       </c>
       <c r="L4" s="1">
-        <v>4.661142</v>
+        <v>4.6611419999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1188.480000</v>
+        <v>1188.48</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.000000</v>
+        <v>-149</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>16790.591340</v>
+        <v>16790.591339999999</v>
       </c>
       <c r="Q4" s="1">
         <v>4.664053</v>
       </c>
       <c r="R4" s="1">
-        <v>1195.900000</v>
+        <v>1195.9000000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.218000</v>
+        <v>-127.218</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>16801.488940</v>
+        <v>16801.488939999999</v>
       </c>
       <c r="V4" s="1">
-        <v>4.667080</v>
+        <v>4.6670800000000003</v>
       </c>
       <c r="W4" s="1">
-        <v>1202.730000</v>
+        <v>1202.73</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.468000</v>
+        <v>-106.468</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>16811.623199</v>
+        <v>16811.623199000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.669895</v>
+        <v>4.6698950000000004</v>
       </c>
       <c r="AB4" s="1">
-        <v>1209.820000</v>
+        <v>1209.82</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.709500</v>
+        <v>-89.709500000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>16822.189969</v>
+        <v>16822.189968999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.672831</v>
+        <v>4.6728310000000004</v>
       </c>
       <c r="AG4" s="1">
-        <v>1214.420000</v>
+        <v>1214.42</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.515800</v>
+        <v>-85.515799999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>16832.590084</v>
+        <v>16832.590083999999</v>
       </c>
       <c r="AK4" s="1">
         <v>4.675719</v>
       </c>
       <c r="AL4" s="1">
-        <v>1221.220000</v>
+        <v>1221.22</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.945000</v>
+        <v>-88.944999999999993</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>16843.116576</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.678643</v>
+        <v>4.6786430000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1229.070000</v>
+        <v>1229.07</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.033000</v>
+        <v>-101.033</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>16854.417562</v>
+        <v>16854.417561999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.681783</v>
+        <v>4.6817830000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1238.950000</v>
+        <v>1238.95</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.651000</v>
+        <v>-120.651</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>16865.647448</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.684902</v>
+        <v>4.6849020000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1247.330000</v>
+        <v>1247.33</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.161000</v>
+        <v>-138.161</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>16876.618458</v>
+        <v>16876.618458000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.687950</v>
+        <v>4.6879499999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1287.320000</v>
+        <v>1287.32</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.291000</v>
+        <v>-220.291</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>16887.731323</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.691036</v>
+        <v>4.6910360000000004</v>
       </c>
       <c r="BK4" s="1">
-        <v>1356.740000</v>
+        <v>1356.74</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.026000</v>
+        <v>-357.02600000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>16898.535214</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.694038</v>
+        <v>4.6940379999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1470.560000</v>
+        <v>1470.56</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.164000</v>
+        <v>-580.16399999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>16908.936286</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.696927</v>
+        <v>4.6969269999999996</v>
       </c>
       <c r="BU4" s="1">
-        <v>1602.220000</v>
+        <v>1602.22</v>
       </c>
       <c r="BV4" s="1">
-        <v>-832.838000</v>
+        <v>-832.83799999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>16920.090821</v>
+        <v>16920.090821000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.700025</v>
+        <v>4.7000250000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1753.970000</v>
+        <v>1753.97</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1107.440000</v>
+        <v>-1107.44</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>16931.362401</v>
+        <v>16931.362400999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.703156</v>
+        <v>4.7031559999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2172.190000</v>
+        <v>2172.19</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1776.500000</v>
+        <v>-1776.5</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>16759.568068</v>
       </c>
       <c r="B5" s="1">
-        <v>4.655436</v>
+        <v>4.6554359999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1140.610000</v>
+        <v>1140.6099999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-257.425000</v>
+        <v>-257.42500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>16769.657222</v>
+        <v>16769.657222000002</v>
       </c>
       <c r="G5" s="1">
-        <v>4.658238</v>
+        <v>4.6582379999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1161.430000</v>
+        <v>1161.43</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.076000</v>
+        <v>-216.07599999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>16780.798824</v>
+        <v>16780.798824000001</v>
       </c>
       <c r="L5" s="1">
-        <v>4.661333</v>
+        <v>4.6613329999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1188.430000</v>
+        <v>1188.43</v>
       </c>
       <c r="N5" s="1">
-        <v>-148.899000</v>
+        <v>-148.899</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>16791.287996</v>
+        <v>16791.287995999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.664247</v>
+        <v>4.6642469999999996</v>
       </c>
       <c r="R5" s="1">
-        <v>1195.890000</v>
+        <v>1195.8900000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.266000</v>
+        <v>-127.26600000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>16801.829724</v>
+        <v>16801.829723999999</v>
       </c>
       <c r="V5" s="1">
-        <v>4.667175</v>
+        <v>4.6671750000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>1202.720000</v>
+        <v>1202.72</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.538000</v>
+        <v>-106.538</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>16811.972382</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.669992</v>
+        <v>4.6699919999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>1209.820000</v>
+        <v>1209.82</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.607500</v>
+        <v>-89.607500000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>16822.536210</v>
+        <v>16822.536209999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.672927</v>
+        <v>4.6729269999999996</v>
       </c>
       <c r="AG5" s="1">
-        <v>1214.380000</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.265200</v>
+        <v>-85.265199999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>16833.249762</v>
+        <v>16833.249761999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.675903</v>
+        <v>4.6759029999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1221.240000</v>
+        <v>1221.24</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.953100</v>
+        <v>-88.953100000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>16843.789748</v>
+        <v>16843.789747999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.678830</v>
+        <v>4.6788299999999996</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1229.060000</v>
+        <v>1229.06</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.054000</v>
+        <v>-101.054</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>16854.870902</v>
+        <v>16854.870901999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.681909</v>
+        <v>4.6819090000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1238.950000</v>
+        <v>1238.95</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.663000</v>
+        <v>-120.663</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>16866.023415</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.685007</v>
+        <v>4.6850069999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>1247.350000</v>
+        <v>1247.3499999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.191000</v>
+        <v>-138.191</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>16877.006825</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.688057</v>
+        <v>4.6880569999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1287.320000</v>
+        <v>1287.32</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.259000</v>
+        <v>-220.25899999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>16888.107291</v>
@@ -1432,28 +1848,28 @@
         <v>4.691141</v>
       </c>
       <c r="BK5" s="1">
-        <v>1356.780000</v>
+        <v>1356.78</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.082000</v>
+        <v>-357.08199999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>16898.956779</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.694155</v>
+        <v>4.6941550000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1470.540000</v>
+        <v>1470.54</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.202000</v>
+        <v>-580.202</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>16909.359881</v>
@@ -1462,317 +1878,317 @@
         <v>4.697044</v>
       </c>
       <c r="BU5" s="1">
-        <v>1602.230000</v>
+        <v>1602.23</v>
       </c>
       <c r="BV5" s="1">
-        <v>-832.953000</v>
+        <v>-832.95299999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>16920.546143</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.700152</v>
+        <v>4.7001520000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1753.980000</v>
+        <v>1753.98</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1107.390000</v>
+        <v>-1107.3900000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>16931.903039</v>
+        <v>16931.903039000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.703306</v>
+        <v>4.7033060000000004</v>
       </c>
       <c r="CE5" s="1">
-        <v>2174.420000</v>
+        <v>2174.42</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1774.940000</v>
+        <v>-1774.94</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>16759.919235</v>
+        <v>16759.919235000001</v>
       </c>
       <c r="B6" s="1">
-        <v>4.655533</v>
+        <v>4.6555330000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1140.820000</v>
+        <v>1140.82</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.286000</v>
+        <v>-257.286</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>16770.337701</v>
       </c>
       <c r="G6" s="1">
-        <v>4.658427</v>
+        <v>4.6584269999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>1161.630000</v>
+        <v>1161.6300000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.631000</v>
+        <v>-215.631</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>16781.142551</v>
+        <v>16781.142551000001</v>
       </c>
       <c r="L6" s="1">
-        <v>4.661428</v>
+        <v>4.6614279999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1188.230000</v>
+        <v>1188.23</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.507000</v>
+        <v>-149.50700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>16791.638889</v>
+        <v>16791.638889000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.664344</v>
+        <v>4.6643439999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.285000</v>
+        <v>-127.285</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>16802.177420</v>
+        <v>16802.17742</v>
       </c>
       <c r="V6" s="1">
-        <v>4.667272</v>
+        <v>4.6672719999999996</v>
       </c>
       <c r="W6" s="1">
-        <v>1202.890000</v>
+        <v>1202.8900000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.509000</v>
+        <v>-106.509</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>16812.632061</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.670176</v>
+        <v>4.6701759999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>1209.840000</v>
+        <v>1209.8399999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.875700</v>
+        <v>-89.875699999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>16823.191391</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.673109</v>
+        <v>4.6731090000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1214.530000</v>
+        <v>1214.53</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.362300</v>
+        <v>-85.362300000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>16833.632709</v>
+        <v>16833.632709000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.676009</v>
+        <v>4.6760089999999996</v>
       </c>
       <c r="AL6" s="1">
-        <v>1221.250000</v>
+        <v>1221.25</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.941200</v>
+        <v>-88.941199999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>16844.233670</v>
+        <v>16844.233670000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.678954</v>
+        <v>4.6789540000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1229.060000</v>
+        <v>1229.06</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.064000</v>
+        <v>-101.06399999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>16855.238933</v>
+        <v>16855.238933000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.682011</v>
+        <v>4.6820110000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1238.950000</v>
+        <v>1238.95</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.664000</v>
+        <v>-120.664</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>16866.411288</v>
+        <v>16866.411287999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.685114</v>
+        <v>4.6851139999999996</v>
       </c>
       <c r="BA6" s="1">
-        <v>1247.320000</v>
+        <v>1247.32</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.161000</v>
+        <v>-138.161</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>16877.367453</v>
+        <v>16877.367452999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.688158</v>
+        <v>4.6881579999999996</v>
       </c>
       <c r="BF6" s="1">
-        <v>1287.350000</v>
+        <v>1287.3499999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.267000</v>
+        <v>-220.267</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>16888.522947</v>
+        <v>16888.522947000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.691256</v>
+        <v>4.6912560000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1356.720000</v>
+        <v>1356.72</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.088000</v>
+        <v>-357.08800000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>16899.352094</v>
+        <v>16899.352094000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.694264</v>
+        <v>4.6942640000000004</v>
       </c>
       <c r="BP6" s="1">
-        <v>1470.600000</v>
+        <v>1470.6</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.198000</v>
+        <v>-580.19799999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>16909.766093</v>
+        <v>16909.766092999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.697157</v>
+        <v>4.6971569999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1602.090000</v>
+        <v>1602.09</v>
       </c>
       <c r="BV6" s="1">
-        <v>-832.943000</v>
+        <v>-832.94299999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>16920.993567</v>
+        <v>16920.993567000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.700276</v>
+        <v>4.7002759999999997</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1753.980000</v>
+        <v>1753.98</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1107.600000</v>
+        <v>-1107.5999999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>16932.444175</v>
+        <v>16932.444175000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.703457</v>
+        <v>4.7034570000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>2172.210000</v>
+        <v>2172.21</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1775.020000</v>
+        <v>-1775.02</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>16760.601234</v>
+        <v>16760.601234000002</v>
       </c>
       <c r="B7" s="1">
-        <v>4.655723</v>
+        <v>4.6557230000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1140.250000</v>
+        <v>1140.25</v>
       </c>
       <c r="D7" s="1">
-        <v>-257.449000</v>
+        <v>-257.44900000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>16770.689661</v>
@@ -1781,390 +2197,390 @@
         <v>4.658525</v>
       </c>
       <c r="H7" s="1">
-        <v>1161.780000</v>
+        <v>1161.78</v>
       </c>
       <c r="I7" s="1">
-        <v>-214.813000</v>
+        <v>-214.81299999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>16781.488929</v>
+        <v>16781.488928999999</v>
       </c>
       <c r="L7" s="1">
-        <v>4.661525</v>
+        <v>4.6615250000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1188.180000</v>
+        <v>1188.18</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.142000</v>
+        <v>-149.142</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>16791.987867</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.664441</v>
+        <v>4.6644410000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1195.820000</v>
+        <v>1195.82</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.275000</v>
+        <v>-127.27500000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>16802.836074</v>
+        <v>16802.836073999999</v>
       </c>
       <c r="V7" s="1">
-        <v>4.667454</v>
+        <v>4.6674540000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1202.830000</v>
+        <v>1202.83</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.543000</v>
+        <v>-106.54300000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>16813.019933</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.670283</v>
+        <v>4.6702830000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>1209.850000</v>
+        <v>1209.8499999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.789300</v>
+        <v>-89.789299999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>16823.571359</v>
+        <v>16823.571359000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.673214</v>
+        <v>4.6732139999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1214.260000</v>
+        <v>1214.26</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.453700</v>
+        <v>-85.453699999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>16833.983345</v>
+        <v>16833.983345000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.676106</v>
+        <v>4.6761059999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1221.240000</v>
+        <v>1221.24</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.942900</v>
+        <v>-88.942899999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>16844.591779</v>
+        <v>16844.591778999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.679053</v>
+        <v>4.6790529999999997</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1229.060000</v>
+        <v>1229.06</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.038000</v>
+        <v>-101.038</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>16855.602469</v>
+        <v>16855.602469000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.682112</v>
+        <v>4.6821120000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1238.950000</v>
+        <v>1238.95</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.667000</v>
+        <v>-120.667</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>16866.832886</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.685231</v>
+        <v>4.6852309999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1247.350000</v>
+        <v>1247.3499999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.193000</v>
+        <v>-138.19300000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>16877.855479</v>
+        <v>16877.855479000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.688293</v>
+        <v>4.6882929999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1287.290000</v>
+        <v>1287.29</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.255000</v>
+        <v>-220.255</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>16888.866666</v>
+        <v>16888.866666000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.691352</v>
+        <v>4.6913520000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1356.720000</v>
+        <v>1356.72</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.084000</v>
+        <v>-357.084</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>16899.774186</v>
+        <v>16899.774185999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.694382</v>
+        <v>4.6943820000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1470.600000</v>
+        <v>1470.6</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.122000</v>
+        <v>-580.12199999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>16910.180786</v>
+        <v>16910.180786000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.697272</v>
+        <v>4.6972719999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1601.960000</v>
+        <v>1601.96</v>
       </c>
       <c r="BV7" s="1">
-        <v>-832.989000</v>
+        <v>-832.98900000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>16921.452335</v>
+        <v>16921.452335000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.700403</v>
+        <v>4.7004029999999997</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1753.920000</v>
+        <v>1753.92</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1107.500000</v>
+        <v>-1107.5</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>16932.982831</v>
+        <v>16932.982831000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.703606</v>
+        <v>4.7036059999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>2173.800000</v>
+        <v>2173.8000000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1776.870000</v>
+        <v>-1776.87</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>16760.940002</v>
+        <v>16760.940001999999</v>
       </c>
       <c r="B8" s="1">
-        <v>4.655817</v>
+        <v>4.6558169999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1140.510000</v>
+        <v>1140.51</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.388000</v>
+        <v>-257.38799999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>16771.035110</v>
+        <v>16771.035110000001</v>
       </c>
       <c r="G8" s="1">
-        <v>4.658621</v>
+        <v>4.6586210000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1161.850000</v>
+        <v>1161.8499999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.444000</v>
+        <v>-215.44399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>16782.133557</v>
+        <v>16782.133557000001</v>
       </c>
       <c r="L8" s="1">
-        <v>4.661704</v>
+        <v>4.6617040000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>1188.530000</v>
+        <v>1188.53</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.431000</v>
+        <v>-149.43100000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>16792.643784</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.664623</v>
+        <v>4.6646229999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>1195.860000</v>
+        <v>1195.8599999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.195000</v>
+        <v>-127.19499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>16803.208074</v>
+        <v>16803.208073999998</v>
       </c>
       <c r="V8" s="1">
-        <v>4.667558</v>
+        <v>4.6675579999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>1202.740000</v>
+        <v>1202.74</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.487000</v>
+        <v>-106.48699999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>16813.366173</v>
+        <v>16813.366172999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.670379</v>
+        <v>4.6703789999999996</v>
       </c>
       <c r="AB8" s="1">
-        <v>1209.870000</v>
+        <v>1209.8699999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.634500</v>
+        <v>-89.634500000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>16823.921529</v>
+        <v>16823.921528999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.673312</v>
+        <v>4.6733120000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1214.300000</v>
+        <v>1214.3</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.334300</v>
+        <v>-85.334299999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>16834.332032</v>
+        <v>16834.332031999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.676203</v>
+        <v>4.6762030000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1221.200000</v>
+        <v>1221.2</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.961700</v>
+        <v>-88.961699999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>16845.011890</v>
+        <v>16845.011890000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.679170</v>
+        <v>4.6791700000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1229.020000</v>
+        <v>1229.02</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.062000</v>
+        <v>-101.062</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>16856.023573</v>
+        <v>16856.023572999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.682229</v>
+        <v>4.6822290000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>1238.970000</v>
+        <v>1238.97</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.656000</v>
+        <v>-120.65600000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>16867.129493</v>
@@ -2173,1101 +2589,1101 @@
         <v>4.685314</v>
       </c>
       <c r="BA8" s="1">
-        <v>1247.350000</v>
+        <v>1247.3499999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.177000</v>
+        <v>-138.17699999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>16878.118391</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.688366</v>
+        <v>4.6883660000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1287.320000</v>
+        <v>1287.32</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.276000</v>
+        <v>-220.27600000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>16889.253581</v>
+        <v>16889.253581000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>4.691459</v>
       </c>
       <c r="BK8" s="1">
-        <v>1356.740000</v>
+        <v>1356.74</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.012000</v>
+        <v>-357.012</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>16900.172506</v>
+        <v>16900.172505999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.694492</v>
+        <v>4.6944920000000003</v>
       </c>
       <c r="BP8" s="1">
-        <v>1470.570000</v>
+        <v>1470.57</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.163000</v>
+        <v>-580.16300000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>16910.595404</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.697388</v>
+        <v>4.6973880000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1601.730000</v>
+        <v>1601.73</v>
       </c>
       <c r="BV8" s="1">
-        <v>-832.996000</v>
+        <v>-832.99599999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>16921.897774</v>
+        <v>16921.897774000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.700527</v>
+        <v>4.7005270000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1753.810000</v>
+        <v>1753.81</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1107.360000</v>
+        <v>-1107.3599999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>16933.519998</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.703756</v>
+        <v>4.7037560000000003</v>
       </c>
       <c r="CE8" s="1">
-        <v>2172.950000</v>
+        <v>2172.9499999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1773.950000</v>
+        <v>-1773.95</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>16761.608114</v>
+        <v>16761.608113999999</v>
       </c>
       <c r="B9" s="1">
         <v>4.656002</v>
       </c>
       <c r="C9" s="1">
-        <v>1140.500000</v>
+        <v>1140.5</v>
       </c>
       <c r="D9" s="1">
-        <v>-257.277000</v>
+        <v>-257.27699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>16771.678424</v>
+        <v>16771.678424000002</v>
       </c>
       <c r="G9" s="1">
-        <v>4.658800</v>
+        <v>4.6588000000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>1162.000000</v>
+        <v>1162</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.373000</v>
+        <v>-215.37299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>16782.527381</v>
       </c>
       <c r="L9" s="1">
-        <v>4.661813</v>
+        <v>4.6618130000000004</v>
       </c>
       <c r="M9" s="1">
-        <v>1188.040000</v>
+        <v>1188.04</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.598000</v>
+        <v>-149.59800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>16793.034135</v>
+        <v>16793.034135000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.664732</v>
+        <v>4.6647319999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1195.880000</v>
+        <v>1195.8800000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.247000</v>
+        <v>-127.247</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>16803.552793</v>
+        <v>16803.552792999999</v>
       </c>
       <c r="V9" s="1">
-        <v>4.667654</v>
+        <v>4.6676539999999997</v>
       </c>
       <c r="W9" s="1">
-        <v>1202.790000</v>
+        <v>1202.79</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.450000</v>
+        <v>-106.45</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>16813.712875</v>
+        <v>16813.712875000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.670476</v>
+        <v>4.6704759999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1209.820000</v>
+        <v>1209.82</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.779400</v>
+        <v>-89.779399999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>16824.265230</v>
+        <v>16824.265230000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.673407</v>
+        <v>4.6734070000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1214.180000</v>
+        <v>1214.18</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.324600</v>
+        <v>-85.324600000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>16834.756608</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.676321</v>
+        <v>4.6763209999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.981200</v>
+        <v>-88.981200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>16845.313991</v>
+        <v>16845.313990999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.679254</v>
+        <v>4.6792540000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1229.050000</v>
+        <v>1229.05</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.044000</v>
+        <v>-101.044</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>16856.331594</v>
+        <v>16856.331593999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.682314</v>
+        <v>4.6823139999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1238.950000</v>
+        <v>1238.95</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.668000</v>
+        <v>-120.66800000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>16867.487110</v>
+        <v>16867.487109999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.685413</v>
+        <v>4.6854129999999996</v>
       </c>
       <c r="BA9" s="1">
-        <v>1247.350000</v>
+        <v>1247.3499999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.194000</v>
+        <v>-138.19399999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>16878.452694</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.688459</v>
+        <v>4.6884589999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1287.310000</v>
+        <v>1287.31</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.273000</v>
+        <v>-220.273</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>16889.631991</v>
+        <v>16889.631990999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.691564</v>
+        <v>4.6915639999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1356.730000</v>
+        <v>1356.73</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.049000</v>
+        <v>-357.04899999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>16900.590601</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.694609</v>
+        <v>4.6946089999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1470.600000</v>
+        <v>1470.6</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.171000</v>
+        <v>-580.17100000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>16911.444059</v>
+        <v>16911.444059000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.697623</v>
+        <v>4.6976230000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1601.630000</v>
+        <v>1601.63</v>
       </c>
       <c r="BV9" s="1">
-        <v>-832.873000</v>
+        <v>-832.87300000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>16922.321324</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.700645</v>
+        <v>4.7006449999999997</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1753.850000</v>
+        <v>1753.85</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1107.400000</v>
+        <v>-1107.4000000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>16934.062653</v>
+        <v>16934.062653000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.703906</v>
+        <v>4.7039059999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2172.250000</v>
+        <v>2172.25</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1776.200000</v>
+        <v>-1776.2</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>16761.967713</v>
+        <v>16761.967712999998</v>
       </c>
       <c r="B10" s="1">
-        <v>4.656102</v>
+        <v>4.6561019999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>1140.470000</v>
+        <v>1140.47</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.408000</v>
+        <v>-257.40800000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>16772.056182</v>
       </c>
       <c r="G10" s="1">
-        <v>4.658904</v>
+        <v>4.6589039999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>1161.170000</v>
+        <v>1161.17</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.326000</v>
+        <v>-215.32599999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>16782.874581</v>
       </c>
       <c r="L10" s="1">
-        <v>4.661910</v>
+        <v>4.6619099999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>1188.120000</v>
+        <v>1188.1199999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.161000</v>
+        <v>-149.161</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>16793.381833</v>
+        <v>16793.381832999999</v>
       </c>
       <c r="Q10" s="1">
         <v>4.664828</v>
       </c>
       <c r="R10" s="1">
-        <v>1195.890000</v>
+        <v>1195.8900000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.225000</v>
+        <v>-127.22499999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>16803.895561</v>
+        <v>16803.895561000001</v>
       </c>
       <c r="V10" s="1">
-        <v>4.667749</v>
+        <v>4.6677489999999997</v>
       </c>
       <c r="W10" s="1">
-        <v>1202.770000</v>
+        <v>1202.77</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.585000</v>
+        <v>-106.58499999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>16814.137419</v>
+        <v>16814.137418999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.670594</v>
+        <v>4.6705940000000004</v>
       </c>
       <c r="AB10" s="1">
-        <v>1209.830000</v>
+        <v>1209.83</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.684500</v>
+        <v>-89.6845</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>16824.694767</v>
+        <v>16824.694767000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.673526</v>
+        <v>4.6735259999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1214.250000</v>
+        <v>1214.25</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.406200</v>
+        <v>-85.406199999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>16835.034901</v>
+        <v>16835.034900999999</v>
       </c>
       <c r="AK10" s="1">
         <v>4.676399</v>
       </c>
       <c r="AL10" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.936800</v>
+        <v>-88.936800000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>16845.675042</v>
+        <v>16845.675041999999</v>
       </c>
       <c r="AP10" s="1">
         <v>4.679354</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1229.050000</v>
+        <v>1229.05</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.044000</v>
+        <v>-101.044</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>16856.694163</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.682415</v>
+        <v>4.6824149999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1238.930000</v>
+        <v>1238.93</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.661000</v>
+        <v>-120.661</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>16867.848694</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.685514</v>
+        <v>4.6855140000000004</v>
       </c>
       <c r="BA10" s="1">
-        <v>1247.360000</v>
+        <v>1247.3599999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.147000</v>
+        <v>-138.14699999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>16879.174837</v>
+        <v>16879.174836999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.688660</v>
+        <v>4.6886599999999996</v>
       </c>
       <c r="BF10" s="1">
-        <v>1287.300000</v>
+        <v>1287.3</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.292000</v>
+        <v>-220.292</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>16890.383927</v>
+        <v>16890.383926999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.691773</v>
+        <v>4.6917730000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1356.720000</v>
+        <v>1356.72</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.054000</v>
+        <v>-357.05399999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>16900.988889</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.694719</v>
+        <v>4.6947190000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1470.570000</v>
+        <v>1470.57</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.192000</v>
+        <v>-580.19200000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>16911.877570</v>
+        <v>16911.877570000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.697744</v>
+        <v>4.6977440000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1601.640000</v>
+        <v>1601.64</v>
       </c>
       <c r="BV10" s="1">
-        <v>-832.746000</v>
+        <v>-832.74599999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>16922.742440</v>
+        <v>16922.742440000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.700762</v>
+        <v>4.7007620000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1753.760000</v>
+        <v>1753.76</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1107.530000</v>
+        <v>-1107.53</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>16934.907804</v>
+        <v>16934.907803999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.704141</v>
+        <v>4.7041409999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2172.570000</v>
+        <v>2172.5700000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1774.500000</v>
+        <v>-1774.5</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>16762.310944</v>
+        <v>16762.310944000001</v>
       </c>
       <c r="B11" s="1">
-        <v>4.656197</v>
+        <v>4.6561969999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>1140.870000</v>
+        <v>1140.8699999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.349000</v>
+        <v>-257.34899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>16772.412498</v>
+        <v>16772.412498000002</v>
       </c>
       <c r="G11" s="1">
-        <v>4.659003</v>
+        <v>4.6590030000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1161.490000</v>
+        <v>1161.49</v>
       </c>
       <c r="I11" s="1">
-        <v>-215.000000</v>
+        <v>-215</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>16783.218805</v>
       </c>
       <c r="L11" s="1">
-        <v>4.662005</v>
+        <v>4.6620049999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>1188.520000</v>
+        <v>1188.52</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.123000</v>
+        <v>-149.12299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>16793.727048</v>
+        <v>16793.727048000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.664924</v>
+        <v>4.6649240000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.265000</v>
+        <v>-127.265</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>16804.314152</v>
+        <v>16804.314151999999</v>
       </c>
       <c r="V11" s="1">
-        <v>4.667865</v>
+        <v>4.6678649999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1202.790000</v>
+        <v>1202.79</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.481000</v>
+        <v>-106.48099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>16814.429067</v>
+        <v>16814.429067000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.670675</v>
+        <v>4.6706750000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1209.800000</v>
+        <v>1209.8</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.750900</v>
+        <v>-89.750900000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>16824.960152</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.673600</v>
+        <v>4.6736000000000004</v>
       </c>
       <c r="AG11" s="1">
-        <v>1214.300000</v>
+        <v>1214.3</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.412900</v>
+        <v>-85.412899999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>16835.383055</v>
+        <v>16835.383054999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.676495</v>
+        <v>4.6764950000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1221.220000</v>
+        <v>1221.22</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.972700</v>
+        <v>-88.972700000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>16846.033153</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.679454</v>
+        <v>4.6794539999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1229.010000</v>
+        <v>1229.01</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.061000</v>
+        <v>-101.06100000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>16857.059716</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.682517</v>
+        <v>4.6825169999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1238.980000</v>
+        <v>1238.98</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.654000</v>
+        <v>-120.654</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>16868.564419</v>
+        <v>16868.564418999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.685712</v>
+        <v>4.6857119999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>1247.350000</v>
+        <v>1247.3499999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.165000</v>
+        <v>-138.16499999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>16879.561717</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.688767</v>
+        <v>4.6887670000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1287.340000</v>
+        <v>1287.3399999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.235000</v>
+        <v>-220.23500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>16890.757910</v>
+        <v>16890.75791</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.691877</v>
+        <v>4.6918769999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1356.730000</v>
+        <v>1356.73</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.079000</v>
+        <v>-357.07900000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>16901.410488</v>
+        <v>16901.410488000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.694836</v>
+        <v>4.6948359999999996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1470.510000</v>
+        <v>1470.51</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.148000</v>
+        <v>-580.14800000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>16912.607673</v>
+        <v>16912.607672999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.697947</v>
+        <v>4.6979470000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1601.560000</v>
+        <v>1601.56</v>
       </c>
       <c r="BV11" s="1">
-        <v>-832.628000</v>
+        <v>-832.62800000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>16923.474523</v>
+        <v>16923.474523000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.700965</v>
+        <v>4.7009650000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1754.010000</v>
+        <v>1754.01</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1107.530000</v>
+        <v>-1107.53</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>16935.139964</v>
+        <v>16935.139964000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.704206</v>
+        <v>4.7042060000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2173.150000</v>
+        <v>2173.15</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1774.250000</v>
+        <v>-1774.25</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>16762.649215</v>
+        <v>16762.649215000001</v>
       </c>
       <c r="B12" s="1">
-        <v>4.656291</v>
+        <v>4.6562910000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>1140.650000</v>
+        <v>1140.6500000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-257.234000</v>
+        <v>-257.23399999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>16772.758706</v>
+        <v>16772.758706000001</v>
       </c>
       <c r="G12" s="1">
-        <v>4.659100</v>
+        <v>4.6590999999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>1161.770000</v>
+        <v>1161.77</v>
       </c>
       <c r="I12" s="1">
-        <v>-216.400000</v>
+        <v>-216.4</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>16783.640435</v>
+        <v>16783.640435000001</v>
       </c>
       <c r="L12" s="1">
-        <v>4.662122</v>
+        <v>4.6621220000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1188.520000</v>
+        <v>1188.52</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.155000</v>
+        <v>-149.155</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>16794.172454</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.665048</v>
+        <v>4.6650479999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>1195.870000</v>
+        <v>1195.8699999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.232000</v>
+        <v>-127.232</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>16804.593897</v>
+        <v>16804.593896999999</v>
       </c>
       <c r="V12" s="1">
-        <v>4.667943</v>
+        <v>4.6679430000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1202.670000</v>
+        <v>1202.67</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.454000</v>
+        <v>-106.45399999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>16814.775275</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.670771</v>
+        <v>4.6707710000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1209.820000</v>
+        <v>1209.82</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.644700</v>
+        <v>-89.6447</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>16825.303357</v>
+        <v>16825.303357000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.673695</v>
+        <v>4.6736950000000004</v>
       </c>
       <c r="AG12" s="1">
-        <v>1214.330000</v>
+        <v>1214.33</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.320500</v>
+        <v>-85.320499999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>16835.734017</v>
+        <v>16835.734016999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.676593</v>
+        <v>4.6765930000000004</v>
       </c>
       <c r="AL12" s="1">
-        <v>1221.190000</v>
+        <v>1221.19</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.937400</v>
+        <v>-88.937399999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>16846.754336</v>
+        <v>16846.754336000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.679654</v>
+        <v>4.6796540000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1228.970000</v>
+        <v>1228.97</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.061000</v>
+        <v>-101.06100000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>16857.796307</v>
+        <v>16857.796307000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.682721</v>
+        <v>4.6827209999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1238.920000</v>
+        <v>1238.92</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.650000</v>
+        <v>-120.65</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>16868.923027</v>
+        <v>16868.923027000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.685812</v>
+        <v>4.6858120000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>1247.330000</v>
+        <v>1247.33</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.156000</v>
+        <v>-138.15600000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>16879.943140</v>
+        <v>16879.943139999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.688873</v>
+        <v>4.6888730000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1287.330000</v>
+        <v>1287.33</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.207000</v>
+        <v>-220.20699999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>16891.132921</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.691981</v>
+        <v>4.6919810000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1356.720000</v>
+        <v>1356.72</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.110000</v>
+        <v>-357.11</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>16902.114809</v>
+        <v>16902.114808999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.695032</v>
+        <v>4.6950320000000003</v>
       </c>
       <c r="BP12" s="1">
-        <v>1470.510000</v>
+        <v>1470.51</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.200000</v>
+        <v>-580.20000000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>16912.749529</v>
+        <v>16912.749529000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.697986</v>
+        <v>4.6979860000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1601.560000</v>
+        <v>1601.56</v>
       </c>
       <c r="BV12" s="1">
-        <v>-832.563000</v>
+        <v>-832.56299999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>16923.585627</v>
@@ -3276,255 +3692,255 @@
         <v>4.700996</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1753.830000</v>
+        <v>1753.83</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1107.340000</v>
+        <v>-1107.3399999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>16935.660235</v>
+        <v>16935.660234999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.704350</v>
+        <v>4.7043499999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>2171.660000</v>
+        <v>2171.66</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1775.770000</v>
+        <v>-1775.77</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>16763.074287</v>
+        <v>16763.074286999999</v>
       </c>
       <c r="B13" s="1">
-        <v>4.656410</v>
+        <v>4.6564100000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1140.890000</v>
+        <v>1140.8900000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-257.391000</v>
+        <v>-257.39100000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>16773.173862</v>
       </c>
       <c r="G13" s="1">
-        <v>4.659215</v>
+        <v>4.6592149999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>1161.550000</v>
+        <v>1161.55</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.327000</v>
+        <v>-215.327</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>16783.920676</v>
+        <v>16783.920676000002</v>
       </c>
       <c r="L13" s="1">
-        <v>4.662200</v>
+        <v>4.6622000000000003</v>
       </c>
       <c r="M13" s="1">
-        <v>1188.300000</v>
+        <v>1188.3</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.130000</v>
+        <v>-149.13</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>16794.424952</v>
+        <v>16794.424952000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.665118</v>
+        <v>4.6651179999999997</v>
       </c>
       <c r="R13" s="1">
-        <v>1195.830000</v>
+        <v>1195.83</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.213000</v>
+        <v>-127.21299999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>16804.938648</v>
+        <v>16804.938647999999</v>
       </c>
       <c r="V13" s="1">
-        <v>4.668039</v>
+        <v>4.6680390000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>1202.820000</v>
+        <v>1202.82</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.450000</v>
+        <v>-106.45</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>16815.126474</v>
+        <v>16815.126474000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.670868</v>
+        <v>4.6708679999999996</v>
       </c>
       <c r="AB13" s="1">
-        <v>1209.840000</v>
+        <v>1209.8399999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.681300</v>
+        <v>-89.681299999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>16825.647580</v>
+        <v>16825.647580000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.673791</v>
+        <v>4.6737909999999996</v>
       </c>
       <c r="AG13" s="1">
-        <v>1214.170000</v>
+        <v>1214.17</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.398800</v>
+        <v>-85.398799999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>16836.429615</v>
+        <v>16836.429615000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.676786</v>
+        <v>4.6767859999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1221.220000</v>
+        <v>1221.22</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.947600</v>
+        <v>-88.947599999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>16847.141247</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.679761</v>
+        <v>4.6797610000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1228.940000</v>
+        <v>1228.94</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.196000</v>
+        <v>-101.196</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>16858.177234</v>
+        <v>16858.177233999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.682827</v>
+        <v>4.6828269999999996</v>
       </c>
       <c r="AV13" s="1">
-        <v>1238.930000</v>
+        <v>1238.93</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.638000</v>
+        <v>-120.63800000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>16869.281138</v>
+        <v>16869.281137999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.685911</v>
+        <v>4.6859109999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1247.370000</v>
+        <v>1247.3699999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.191000</v>
+        <v>-138.191</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>16880.610755</v>
+        <v>16880.610755000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.689059</v>
+        <v>4.6890590000000003</v>
       </c>
       <c r="BF13" s="1">
-        <v>1287.310000</v>
+        <v>1287.31</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.246000</v>
+        <v>-220.24600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>16891.820837</v>
+        <v>16891.820836999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.692172</v>
+        <v>4.6921720000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1356.710000</v>
+        <v>1356.71</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.063000</v>
+        <v>-357.06299999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>16902.225416</v>
+        <v>16902.225416000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.695063</v>
+        <v>4.6950630000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1470.580000</v>
+        <v>1470.58</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.143000</v>
+        <v>-580.14300000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>16913.163224</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.698101</v>
+        <v>4.6981010000000003</v>
       </c>
       <c r="BU13" s="1">
-        <v>1601.620000</v>
+        <v>1601.62</v>
       </c>
       <c r="BV13" s="1">
-        <v>-832.423000</v>
+        <v>-832.423</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>16924.022106</v>
@@ -3533,574 +3949,574 @@
         <v>4.701117</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1753.820000</v>
+        <v>1753.82</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1107.510000</v>
+        <v>-1107.51</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>16936.177067</v>
+        <v>16936.177067000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.704494</v>
+        <v>4.7044940000000004</v>
       </c>
       <c r="CE13" s="1">
-        <v>2171.820000</v>
+        <v>2171.8200000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1774.690000</v>
+        <v>-1774.69</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>16763.350559</v>
+        <v>16763.350558999999</v>
       </c>
       <c r="B14" s="1">
-        <v>4.656486</v>
+        <v>4.6564860000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1140.910000</v>
+        <v>1140.9100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-257.407000</v>
+        <v>-257.40699999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>16773.446129</v>
       </c>
       <c r="G14" s="1">
-        <v>4.659291</v>
+        <v>4.6592909999999996</v>
       </c>
       <c r="H14" s="1">
-        <v>1161.320000</v>
+        <v>1161.32</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.887000</v>
+        <v>-215.887</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>16784.268836</v>
+        <v>16784.268835999999</v>
       </c>
       <c r="L14" s="1">
-        <v>4.662297</v>
+        <v>4.6622969999999997</v>
       </c>
       <c r="M14" s="1">
-        <v>1188.740000</v>
+        <v>1188.74</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.108000</v>
+        <v>-149.108</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>16794.774101</v>
+        <v>16794.774100999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.665215</v>
+        <v>4.6652149999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1195.880000</v>
+        <v>1195.8800000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.250000</v>
+        <v>-127.25</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>16805.278376</v>
+        <v>16805.278375999998</v>
       </c>
       <c r="V14" s="1">
-        <v>4.668133</v>
+        <v>4.6681330000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1202.760000</v>
+        <v>1202.76</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.408000</v>
+        <v>-106.408</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>16815.821835</v>
+        <v>16815.821834999999</v>
       </c>
       <c r="AA14" s="1">
         <v>4.671062</v>
       </c>
       <c r="AB14" s="1">
-        <v>1209.910000</v>
+        <v>1209.9100000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.828800</v>
+        <v>-89.828800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>16826.336523</v>
+        <v>16826.336523000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.673982</v>
+        <v>4.6739819999999996</v>
       </c>
       <c r="AG14" s="1">
-        <v>1214.330000</v>
+        <v>1214.33</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.491400</v>
+        <v>-85.491399999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>16836.780781</v>
+        <v>16836.780781000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.676884</v>
+        <v>4.6768840000000003</v>
       </c>
       <c r="AL14" s="1">
-        <v>1221.230000</v>
+        <v>1221.23</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.960200</v>
+        <v>-88.9602</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>16847.502336</v>
+        <v>16847.502336000001</v>
       </c>
       <c r="AP14" s="1">
         <v>4.679862</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1228.940000</v>
+        <v>1228.94</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.200000</v>
+        <v>-101.2</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>16858.542754</v>
+        <v>16858.542753999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.682929</v>
+        <v>4.6829289999999997</v>
       </c>
       <c r="AV14" s="1">
-        <v>1238.950000</v>
+        <v>1238.95</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.662000</v>
+        <v>-120.66200000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>16869.953745</v>
+        <v>16869.953744999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.686098</v>
+        <v>4.6860980000000003</v>
       </c>
       <c r="BA14" s="1">
-        <v>1247.340000</v>
+        <v>1247.3399999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.207000</v>
+        <v>-138.20699999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>16881.028884</v>
+        <v>16881.028883999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.689175</v>
+        <v>4.6891749999999996</v>
       </c>
       <c r="BF14" s="1">
-        <v>1287.300000</v>
+        <v>1287.3</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.235000</v>
+        <v>-220.23500000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>16892.258309</v>
+        <v>16892.258309000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.692294</v>
+        <v>4.6922940000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1356.710000</v>
+        <v>1356.71</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.043000</v>
+        <v>-357.04300000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>16902.649031</v>
+        <v>16902.649031000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.695180</v>
+        <v>4.6951799999999997</v>
       </c>
       <c r="BP14" s="1">
-        <v>1470.560000</v>
+        <v>1470.56</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.239000</v>
+        <v>-580.23900000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>16913.591267</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.698220</v>
+        <v>4.6982200000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1601.570000</v>
+        <v>1601.57</v>
       </c>
       <c r="BV14" s="1">
-        <v>-832.354000</v>
+        <v>-832.35400000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>16924.476117</v>
+        <v>16924.476116999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.701243</v>
+        <v>4.7012429999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1753.820000</v>
+        <v>1753.82</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1107.460000</v>
+        <v>-1107.46</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>16936.728617</v>
+        <v>16936.728617000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.704647</v>
+        <v>4.7046469999999996</v>
       </c>
       <c r="CE14" s="1">
-        <v>2173.250000</v>
+        <v>2173.25</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1774.430000</v>
+        <v>-1774.43</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>16763.690440</v>
+        <v>16763.690439999998</v>
       </c>
       <c r="B15" s="1">
-        <v>4.656581</v>
+        <v>4.6565810000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1140.740000</v>
+        <v>1140.74</v>
       </c>
       <c r="D15" s="1">
-        <v>-257.520000</v>
+        <v>-257.52</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>16773.793365</v>
+        <v>16773.793365000001</v>
       </c>
       <c r="G15" s="1">
-        <v>4.659387</v>
+        <v>4.6593869999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>1161.770000</v>
+        <v>1161.77</v>
       </c>
       <c r="I15" s="1">
-        <v>-215.306000</v>
+        <v>-215.30600000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>16784.611602</v>
+        <v>16784.611602000001</v>
       </c>
       <c r="L15" s="1">
-        <v>4.662392</v>
+        <v>4.6623919999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>1188.330000</v>
+        <v>1188.33</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.135000</v>
+        <v>-149.13499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>16795.470812</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.665409</v>
+        <v>4.6654090000000004</v>
       </c>
       <c r="R15" s="1">
-        <v>1195.870000</v>
+        <v>1195.8699999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.245000</v>
+        <v>-127.245</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>16805.965863</v>
+        <v>16805.965863000001</v>
       </c>
       <c r="V15" s="1">
-        <v>4.668324</v>
+        <v>4.6683240000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1202.700000</v>
+        <v>1202.7</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.451000</v>
+        <v>-106.45099999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>16816.172009</v>
+        <v>16816.172009000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.671159</v>
+        <v>4.6711590000000003</v>
       </c>
       <c r="AB15" s="1">
-        <v>1209.790000</v>
+        <v>1209.79</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.660800</v>
+        <v>-89.660799999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>16826.681739</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.674078</v>
+        <v>4.6740779999999997</v>
       </c>
       <c r="AG15" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.417700</v>
+        <v>-85.417699999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>16837.126494</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.676980</v>
+        <v>4.6769800000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>1221.230000</v>
+        <v>1221.23</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.960900</v>
+        <v>-88.960899999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>16848.169459</v>
+        <v>16848.169459000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.680047</v>
+        <v>4.6800470000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1228.970000</v>
+        <v>1228.97</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.208000</v>
+        <v>-101.208</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>16859.218800</v>
+        <v>16859.218799999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.683116</v>
+        <v>4.6831160000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1238.930000</v>
+        <v>1238.93</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.653000</v>
+        <v>-120.65300000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>16870.386754</v>
+        <v>16870.386753999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.686219</v>
+        <v>4.6862190000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>1247.340000</v>
+        <v>1247.3399999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.177000</v>
+        <v>-138.17699999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>16881.413282</v>
+        <v>16881.413282000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.689281</v>
+        <v>4.6892810000000003</v>
       </c>
       <c r="BF15" s="1">
-        <v>1287.340000</v>
+        <v>1287.3399999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.254000</v>
+        <v>-220.25399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>16892.632823</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.692398</v>
+        <v>4.6923979999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1356.720000</v>
+        <v>1356.72</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.069000</v>
+        <v>-357.06900000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>16903.047286</v>
+        <v>16903.047286000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.695291</v>
+        <v>4.6952910000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1470.510000</v>
+        <v>1470.51</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.194000</v>
+        <v>-580.19399999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>16914.009385</v>
+        <v>16914.009385000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.698336</v>
+        <v>4.6983360000000003</v>
       </c>
       <c r="BU15" s="1">
-        <v>1601.700000</v>
+        <v>1601.7</v>
       </c>
       <c r="BV15" s="1">
-        <v>-832.262000</v>
+        <v>-832.26199999999994</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>16924.928825</v>
+        <v>16924.928824999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.701369</v>
+        <v>4.7013689999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1753.870000</v>
+        <v>1753.87</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1107.500000</v>
+        <v>-1107.5</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>16937.256857</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.704794</v>
+        <v>4.7047939999999997</v>
       </c>
       <c r="CE15" s="1">
-        <v>2171.760000</v>
+        <v>2171.7600000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1775.410000</v>
+        <v>-1775.41</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>16764.032063</v>
+        <v>16764.032062999999</v>
       </c>
       <c r="B16" s="1">
         <v>4.656676</v>
       </c>
       <c r="C16" s="1">
-        <v>1140.690000</v>
+        <v>1140.69</v>
       </c>
       <c r="D16" s="1">
-        <v>-257.536000</v>
+        <v>-257.536</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>16774.140561</v>
       </c>
       <c r="G16" s="1">
-        <v>4.659483</v>
+        <v>4.6594829999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1161.790000</v>
+        <v>1161.79</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.385000</v>
+        <v>-215.38499999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>16785.304977</v>
@@ -4109,345 +4525,345 @@
         <v>4.662585</v>
       </c>
       <c r="M16" s="1">
-        <v>1188.360000</v>
+        <v>1188.3599999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.137000</v>
+        <v>-149.137</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>16795.818181</v>
+        <v>16795.818180999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.665505</v>
+        <v>4.6655049999999996</v>
       </c>
       <c r="R16" s="1">
-        <v>1195.890000</v>
+        <v>1195.8900000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.254000</v>
+        <v>-127.254</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>16806.308598</v>
       </c>
       <c r="V16" s="1">
-        <v>4.668419</v>
+        <v>4.6684190000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1202.800000</v>
+        <v>1202.8</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.497000</v>
+        <v>-106.497</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>16816.509288</v>
+        <v>16816.509288000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.671253</v>
+        <v>4.6712530000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.780600</v>
+        <v>-89.780600000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>16827.021994</v>
+        <v>16827.021993999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.674173</v>
+        <v>4.6741729999999997</v>
       </c>
       <c r="AG16" s="1">
-        <v>1214.340000</v>
+        <v>1214.3399999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.464300</v>
+        <v>-85.464299999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>16837.788183</v>
+        <v>16837.788183000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.677163</v>
+        <v>4.6771630000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1221.230000</v>
+        <v>1221.23</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.961600</v>
+        <v>-88.961600000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>16848.608879</v>
+        <v>16848.608878999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.680169</v>
+        <v>4.6801690000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1228.950000</v>
+        <v>1228.95</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.228000</v>
+        <v>-101.22799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>16859.674623</v>
+        <v>16859.674622999999</v>
       </c>
       <c r="AU16" s="1">
         <v>4.683243</v>
       </c>
       <c r="AV16" s="1">
-        <v>1238.950000</v>
+        <v>1238.95</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.667000</v>
+        <v>-120.667</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>16870.747479</v>
+        <v>16870.747479000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.686319</v>
+        <v>4.6863190000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1247.340000</v>
+        <v>1247.3399999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.179000</v>
+        <v>-138.179</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>16881.779828</v>
+        <v>16881.779827999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.689383</v>
+        <v>4.6893830000000003</v>
       </c>
       <c r="BF16" s="1">
-        <v>1287.340000</v>
+        <v>1287.3399999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.203000</v>
+        <v>-220.203</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>16893.008259</v>
+        <v>16893.008258999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.692502</v>
+        <v>4.6925020000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1356.690000</v>
+        <v>1356.69</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.086000</v>
+        <v>-357.08600000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>16903.469416</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.695408</v>
+        <v>4.6954079999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1470.550000</v>
+        <v>1470.55</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.221000</v>
+        <v>-580.221</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>16914.420055</v>
+        <v>16914.420054999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.698450</v>
+        <v>4.6984500000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1601.730000</v>
+        <v>1601.73</v>
       </c>
       <c r="BV16" s="1">
-        <v>-832.187000</v>
+        <v>-832.18700000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>16925.350392</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.701486</v>
+        <v>4.7014860000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1753.960000</v>
+        <v>1753.96</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1107.210000</v>
+        <v>-1107.21</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>16937.778648</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.704939</v>
+        <v>4.7049390000000004</v>
       </c>
       <c r="CE16" s="1">
-        <v>2173.860000</v>
+        <v>2173.86</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1776.380000</v>
+        <v>-1776.38</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>16764.715549</v>
       </c>
       <c r="B17" s="1">
-        <v>4.656865</v>
+        <v>4.6568649999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>1140.570000</v>
+        <v>1140.57</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.382000</v>
+        <v>-257.38200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>16774.826527</v>
+        <v>16774.826527000001</v>
       </c>
       <c r="G17" s="1">
-        <v>4.659674</v>
+        <v>4.6596739999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1161.810000</v>
+        <v>1161.81</v>
       </c>
       <c r="I17" s="1">
-        <v>-215.972000</v>
+        <v>-215.97200000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>16785.653665</v>
+        <v>16785.653665000002</v>
       </c>
       <c r="L17" s="1">
-        <v>4.662682</v>
+        <v>4.6626820000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1188.350000</v>
+        <v>1188.3499999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.149000</v>
+        <v>-149.149</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>16796.169386</v>
+        <v>16796.169386000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.665603</v>
+        <v>4.6656029999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1195.840000</v>
+        <v>1195.8399999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.260000</v>
+        <v>-127.26</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>16806.653816</v>
+        <v>16806.653815999998</v>
       </c>
       <c r="V17" s="1">
-        <v>4.668515</v>
+        <v>4.6685150000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1202.860000</v>
+        <v>1202.8599999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.486000</v>
+        <v>-106.486</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>16817.179913</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.671439</v>
+        <v>4.6714390000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>1209.860000</v>
+        <v>1209.8599999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.766800</v>
+        <v>-89.766800000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>16827.682180</v>
+        <v>16827.68218</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.674356</v>
+        <v>4.6743560000000004</v>
       </c>
       <c r="AG17" s="1">
-        <v>1214.240000</v>
+        <v>1214.24</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.467100</v>
+        <v>-85.467100000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>16838.176062</v>
+        <v>16838.176061999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.677271</v>
+        <v>4.6772710000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.954400</v>
+        <v>-88.954400000000007</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>16848.969469</v>
@@ -4456,13 +4872,13 @@
         <v>4.680269</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1228.960000</v>
+        <v>1228.96</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.212000</v>
+        <v>-101.212</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>16860.038687</v>
@@ -4471,527 +4887,527 @@
         <v>4.683344</v>
       </c>
       <c r="AV17" s="1">
-        <v>1238.930000</v>
+        <v>1238.93</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.658000</v>
+        <v>-120.658</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>16871.106417</v>
+        <v>16871.106416999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.686418</v>
+        <v>4.6864179999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1247.360000</v>
+        <v>1247.3599999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.184000</v>
+        <v>-138.184</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>16882.194482</v>
+        <v>16882.194481999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.689498</v>
+        <v>4.6894980000000004</v>
       </c>
       <c r="BF17" s="1">
-        <v>1287.340000</v>
+        <v>1287.3399999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.232000</v>
+        <v>-220.232</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>16893.453172</v>
+        <v>16893.453172000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.692626</v>
+        <v>4.6926259999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1356.720000</v>
+        <v>1356.72</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.062000</v>
+        <v>-357.06200000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>16903.866213</v>
+        <v>16903.866213000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.695518</v>
+        <v>4.6955179999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1470.570000</v>
+        <v>1470.57</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.206000</v>
+        <v>-580.20600000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>16914.835702</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.698565</v>
+        <v>4.6985650000000003</v>
       </c>
       <c r="BU17" s="1">
-        <v>1601.860000</v>
+        <v>1601.86</v>
       </c>
       <c r="BV17" s="1">
-        <v>-832.147000</v>
+        <v>-832.14700000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>16925.768520</v>
+        <v>16925.768520000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.701602</v>
+        <v>4.7016020000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1753.760000</v>
+        <v>1753.76</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1107.400000</v>
+        <v>-1107.4000000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>16938.316807</v>
+        <v>16938.316806999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.705088</v>
+        <v>4.7050879999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2173.210000</v>
+        <v>2173.21</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1774.140000</v>
+        <v>-1774.14</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>16765.059276</v>
       </c>
       <c r="B18" s="1">
-        <v>4.656961</v>
+        <v>4.6569609999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1140.480000</v>
+        <v>1140.48</v>
       </c>
       <c r="D18" s="1">
-        <v>-257.150000</v>
+        <v>-257.14999999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>16775.173695</v>
+        <v>16775.173695000001</v>
       </c>
       <c r="G18" s="1">
-        <v>4.659770</v>
+        <v>4.65977</v>
       </c>
       <c r="H18" s="1">
-        <v>1161.910000</v>
+        <v>1161.9100000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.750000</v>
+        <v>-215.75</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>16785.998912</v>
+        <v>16785.998911999999</v>
       </c>
       <c r="L18" s="1">
-        <v>4.662777</v>
+        <v>4.6627770000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1188.460000</v>
+        <v>1188.46</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.324000</v>
+        <v>-149.32400000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>16796.821090</v>
+        <v>16796.821090000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.665784</v>
+        <v>4.6657840000000004</v>
       </c>
       <c r="R18" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.227000</v>
+        <v>-127.227</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>16807.310980</v>
+        <v>16807.310979999998</v>
       </c>
       <c r="V18" s="1">
-        <v>4.668697</v>
+        <v>4.6686969999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1202.790000</v>
+        <v>1202.79</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.471000</v>
+        <v>-106.471</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>16817.564803</v>
+        <v>16817.564803000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.671546</v>
+        <v>4.6715460000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1209.950000</v>
+        <v>1209.95</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.651000</v>
+        <v>-89.650999999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>16828.053177</v>
+        <v>16828.053177000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.674459</v>
+        <v>4.6744589999999997</v>
       </c>
       <c r="AG18" s="1">
-        <v>1214.290000</v>
+        <v>1214.29</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.384900</v>
+        <v>-85.384900000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>16838.521771</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.677367</v>
+        <v>4.6773670000000003</v>
       </c>
       <c r="AL18" s="1">
-        <v>1221.220000</v>
+        <v>1221.22</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.946100</v>
+        <v>-88.946100000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>16849.332046</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.680370</v>
+        <v>4.6803699999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1228.970000</v>
+        <v>1228.97</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.238000</v>
+        <v>-101.238</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>16860.397790</v>
+        <v>16860.397789999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.683444</v>
+        <v>4.6834439999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>1238.920000</v>
+        <v>1238.92</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.651000</v>
+        <v>-120.651</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>16871.535455</v>
+        <v>16871.535455000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.686538</v>
+        <v>4.6865379999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>1247.380000</v>
+        <v>1247.3800000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.187000</v>
+        <v>-138.18700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>16882.498529</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.689583</v>
+        <v>4.6895829999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1287.350000</v>
+        <v>1287.3499999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.200000</v>
+        <v>-220.2</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>16893.769123</v>
+        <v>16893.769122999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.692714</v>
+        <v>4.6927139999999996</v>
       </c>
       <c r="BK18" s="1">
-        <v>1356.700000</v>
+        <v>1356.7</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.086000</v>
+        <v>-357.08600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>16904.287284</v>
+        <v>16904.287284000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.695635</v>
+        <v>4.6956350000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1470.530000</v>
+        <v>1470.53</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.152000</v>
+        <v>-580.15200000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>16915.247382</v>
+        <v>16915.247382000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.698680</v>
+        <v>4.6986800000000004</v>
       </c>
       <c r="BU18" s="1">
-        <v>1601.950000</v>
+        <v>1601.95</v>
       </c>
       <c r="BV18" s="1">
-        <v>-832.168000</v>
+        <v>-832.16800000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>16926.195111</v>
+        <v>16926.195111000001</v>
       </c>
       <c r="BY18" s="1">
         <v>4.701721</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1753.790000</v>
+        <v>1753.79</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1107.500000</v>
+        <v>-1107.5</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>16938.856493</v>
+        <v>16938.856492999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.705238</v>
+        <v>4.7052379999999996</v>
       </c>
       <c r="CE18" s="1">
-        <v>2172.160000</v>
+        <v>2172.16</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1776.950000</v>
+        <v>-1776.95</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>16765.399533</v>
       </c>
       <c r="B19" s="1">
-        <v>4.657055</v>
+        <v>4.6570549999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>1140.780000</v>
+        <v>1140.78</v>
       </c>
       <c r="D19" s="1">
-        <v>-257.585000</v>
+        <v>-257.58499999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>16775.518911</v>
+        <v>16775.518910999999</v>
       </c>
       <c r="G19" s="1">
-        <v>4.659866</v>
+        <v>4.6598660000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1161.600000</v>
+        <v>1161.5999999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.575000</v>
+        <v>-215.57499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>16786.649168</v>
       </c>
       <c r="L19" s="1">
-        <v>4.662958</v>
+        <v>4.6629579999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>1188.410000</v>
+        <v>1188.4100000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.504000</v>
+        <v>-149.50399999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>16797.215411</v>
+        <v>16797.215411000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.665893</v>
+        <v>4.6658929999999996</v>
       </c>
       <c r="R19" s="1">
-        <v>1195.890000</v>
+        <v>1195.8900000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.190000</v>
+        <v>-127.19</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>16807.685961</v>
+        <v>16807.685960999999</v>
       </c>
       <c r="V19" s="1">
-        <v>4.668802</v>
+        <v>4.6688020000000003</v>
       </c>
       <c r="W19" s="1">
-        <v>1202.780000</v>
+        <v>1202.78</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.573000</v>
+        <v>-106.57299999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>16817.914454</v>
+        <v>16817.914454000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.671643</v>
+        <v>4.6716430000000004</v>
       </c>
       <c r="AB19" s="1">
-        <v>1209.570000</v>
+        <v>1209.57</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.495400</v>
+        <v>-89.495400000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>16828.396409</v>
+        <v>16828.396409000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.674555</v>
+        <v>4.6745549999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1214.300000</v>
+        <v>1214.3</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.371800</v>
+        <v>-85.371799999999993</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>16838.867947</v>
+        <v>16838.867946999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.677463</v>
+        <v>4.6774630000000004</v>
       </c>
       <c r="AL19" s="1">
-        <v>1221.200000</v>
+        <v>1221.2</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.950300</v>
+        <v>-88.950299999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>16849.754140</v>
+        <v>16849.754140000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.680487</v>
+        <v>4.6804870000000003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1228.970000</v>
+        <v>1228.97</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.215000</v>
+        <v>-101.215</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>16860.861053</v>
+        <v>16860.861053000001</v>
       </c>
       <c r="AU19" s="1">
         <v>4.683573</v>
       </c>
       <c r="AV19" s="1">
-        <v>1238.940000</v>
+        <v>1238.94</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.653000</v>
+        <v>-120.65300000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>16871.821151</v>
@@ -5000,709 +5416,709 @@
         <v>4.686617</v>
       </c>
       <c r="BA19" s="1">
-        <v>1247.330000</v>
+        <v>1247.33</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.188000</v>
+        <v>-138.18799999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>16882.862097</v>
+        <v>16882.862097000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.689684</v>
+        <v>4.6896839999999997</v>
       </c>
       <c r="BF19" s="1">
-        <v>1287.330000</v>
+        <v>1287.33</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.245000</v>
+        <v>-220.245</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>16894.156003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.692821</v>
+        <v>4.6928210000000004</v>
       </c>
       <c r="BK19" s="1">
-        <v>1356.730000</v>
+        <v>1356.73</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.103000</v>
+        <v>-357.10300000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>16904.681603</v>
+        <v>16904.681603000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.695745</v>
+        <v>4.6957449999999996</v>
       </c>
       <c r="BP19" s="1">
-        <v>1470.530000</v>
+        <v>1470.53</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.177000</v>
+        <v>-580.17700000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>16915.667991</v>
+        <v>16915.667990999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.698797</v>
+        <v>4.6987969999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1602.140000</v>
+        <v>1602.14</v>
       </c>
       <c r="BV19" s="1">
-        <v>-832.068000</v>
+        <v>-832.06799999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>16926.612711</v>
+        <v>16926.612711000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.701837</v>
+        <v>4.7018370000000003</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1753.960000</v>
+        <v>1753.96</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1107.550000</v>
+        <v>-1107.55</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>16939.397094</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.705388</v>
+        <v>4.7053880000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2174.190000</v>
+        <v>2174.19</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1775.170000</v>
+        <v>-1775.17</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>16766.042844</v>
       </c>
       <c r="B20" s="1">
-        <v>4.657234</v>
+        <v>4.6572339999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1140.790000</v>
+        <v>1140.79</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.351000</v>
+        <v>-257.351</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>16776.164701</v>
+        <v>16776.164701000002</v>
       </c>
       <c r="G20" s="1">
-        <v>4.660046</v>
+        <v>4.6600460000000004</v>
       </c>
       <c r="H20" s="1">
-        <v>1161.640000</v>
+        <v>1161.6400000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.433000</v>
+        <v>-215.43299999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>16787.033040</v>
+        <v>16787.033039999998</v>
       </c>
       <c r="L20" s="1">
-        <v>4.663065</v>
+        <v>4.6630649999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>1188.750000</v>
+        <v>1188.75</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.114000</v>
+        <v>-149.114</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>16797.562609</v>
+        <v>16797.562609000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.665990</v>
+        <v>4.6659899999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1195.910000</v>
+        <v>1195.9100000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.185000</v>
+        <v>-127.185</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>16808.030211</v>
+        <v>16808.030211000001</v>
       </c>
       <c r="V20" s="1">
-        <v>4.668897</v>
+        <v>4.6688970000000003</v>
       </c>
       <c r="W20" s="1">
-        <v>1202.680000</v>
+        <v>1202.68</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.489000</v>
+        <v>-106.489</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>16818.262648</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.671740</v>
+        <v>4.6717399999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1209.800000</v>
+        <v>1209.8</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.619600</v>
+        <v>-89.619600000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>16828.815064</v>
+        <v>16828.815063999999</v>
       </c>
       <c r="AF20" s="1">
         <v>4.674671</v>
       </c>
       <c r="AG20" s="1">
-        <v>1214.190000</v>
+        <v>1214.19</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.501100</v>
+        <v>-85.501099999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>16839.300966</v>
+        <v>16839.300965999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.677584</v>
+        <v>4.6775840000000004</v>
       </c>
       <c r="AL20" s="1">
-        <v>1221.200000</v>
+        <v>1221.2</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.974200</v>
+        <v>-88.974199999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>16850.050252</v>
+        <v>16850.050252000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.680570</v>
+        <v>4.6805700000000003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1228.970000</v>
+        <v>1228.97</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.232000</v>
+        <v>-101.232</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>16861.155677</v>
+        <v>16861.155676999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.683654</v>
+        <v>4.6836539999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1238.940000</v>
+        <v>1238.94</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.646000</v>
+        <v>-120.646</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>16872.184261</v>
+        <v>16872.184260999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.686718</v>
+        <v>4.6867179999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1247.340000</v>
+        <v>1247.3399999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.185000</v>
+        <v>-138.185</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>16883.221697</v>
+        <v>16883.221697000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.689784</v>
+        <v>4.6897840000000004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1287.350000</v>
+        <v>1287.3499999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.203000</v>
+        <v>-220.203</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>16894.857378</v>
+        <v>16894.857378000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.693016</v>
+        <v>4.6930160000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1356.660000</v>
+        <v>1356.66</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.044000</v>
+        <v>-357.04399999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>16905.102211</v>
+        <v>16905.102211000001</v>
       </c>
       <c r="BO20" s="1">
         <v>4.695862</v>
       </c>
       <c r="BP20" s="1">
-        <v>1470.570000</v>
+        <v>1470.57</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.216000</v>
+        <v>-580.21600000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>16916.100005</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.698917</v>
+        <v>4.6989169999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1602.250000</v>
+        <v>1602.25</v>
       </c>
       <c r="BV20" s="1">
-        <v>-832.113000</v>
+        <v>-832.11300000000006</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>16927.068572</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.701963</v>
+        <v>4.7019630000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1753.970000</v>
+        <v>1753.97</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1107.390000</v>
+        <v>-1107.3900000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>16939.935253</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.705538</v>
+        <v>4.7055379999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>2171.950000</v>
+        <v>2171.9499999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1774.990000</v>
+        <v>-1774.99</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>16766.426746</v>
+        <v>16766.426746000001</v>
       </c>
       <c r="B21" s="1">
-        <v>4.657341</v>
+        <v>4.6573409999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>1140.670000</v>
+        <v>1140.67</v>
       </c>
       <c r="D21" s="1">
-        <v>-257.620000</v>
+        <v>-257.62</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>16776.543149</v>
+        <v>16776.543149000001</v>
       </c>
       <c r="G21" s="1">
-        <v>4.660151</v>
+        <v>4.6601509999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1161.260000</v>
+        <v>1161.26</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.007000</v>
+        <v>-216.00700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>16787.378752</v>
+        <v>16787.378752000001</v>
       </c>
       <c r="L21" s="1">
-        <v>4.663161</v>
+        <v>4.6631609999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>1188.690000</v>
+        <v>1188.69</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.212000</v>
+        <v>-149.21199999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>16797.910337</v>
+        <v>16797.910337000001</v>
       </c>
       <c r="Q21" s="1">
         <v>4.666086</v>
       </c>
       <c r="R21" s="1">
-        <v>1195.910000</v>
+        <v>1195.9100000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.239000</v>
+        <v>-127.239</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>16808.376883</v>
+        <v>16808.376883000001</v>
       </c>
       <c r="V21" s="1">
-        <v>4.668994</v>
+        <v>4.6689939999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>1202.720000</v>
+        <v>1202.72</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.478000</v>
+        <v>-106.47799999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>16818.690197</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.671858</v>
+        <v>4.6718580000000003</v>
       </c>
       <c r="AB21" s="1">
-        <v>1209.730000</v>
+        <v>1209.73</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.658500</v>
+        <v>-89.658500000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>16829.113624</v>
+        <v>16829.113624000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.674754</v>
+        <v>4.6747540000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1214.100000</v>
+        <v>1214.0999999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.551000</v>
+        <v>-85.551000000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>16839.578713</v>
+        <v>16839.578712999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.677661</v>
+        <v>4.6776609999999996</v>
       </c>
       <c r="AL21" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.937000</v>
+        <v>-88.936999999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>16850.412827</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.680670</v>
+        <v>4.6806700000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1228.990000</v>
+        <v>1228.99</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.248000</v>
+        <v>-101.248</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>16861.495934</v>
+        <v>16861.495933999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.683749</v>
+        <v>4.6837489999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>1238.930000</v>
+        <v>1238.93</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.667000</v>
+        <v>-120.667</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>16872.540846</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.686817</v>
+        <v>4.6868169999999996</v>
       </c>
       <c r="BA21" s="1">
-        <v>1247.360000</v>
+        <v>1247.3599999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.168000</v>
+        <v>-138.16800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>16883.946391</v>
+        <v>16883.946391000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.689985</v>
+        <v>4.6899850000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1287.350000</v>
+        <v>1287.3499999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.231000</v>
+        <v>-220.23099999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>16895.310194</v>
+        <v>16895.310194000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.693142</v>
+        <v>4.6931419999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1356.680000</v>
+        <v>1356.68</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.068000</v>
+        <v>-357.06799999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>16905.500995</v>
+        <v>16905.500994999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.695972</v>
+        <v>4.6959720000000003</v>
       </c>
       <c r="BP21" s="1">
-        <v>1470.580000</v>
+        <v>1470.58</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.239000</v>
+        <v>-580.23900000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>16916.530532</v>
+        <v>16916.530532000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.699036</v>
+        <v>4.6990360000000004</v>
       </c>
       <c r="BU21" s="1">
-        <v>1602.310000</v>
+        <v>1602.31</v>
       </c>
       <c r="BV21" s="1">
-        <v>-832.207000</v>
+        <v>-832.20699999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>16927.484183</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.702079</v>
+        <v>4.7020790000000003</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1753.800000</v>
+        <v>1753.8</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1107.400000</v>
+        <v>-1107.4000000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>16940.778981</v>
+        <v>16940.778980999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.705772</v>
+        <v>4.7057719999999996</v>
       </c>
       <c r="CE21" s="1">
-        <v>2173.960000</v>
+        <v>2173.96</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1774.840000</v>
+        <v>-1774.84</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>16766.768986</v>
+        <v>16766.768985999999</v>
       </c>
       <c r="B22" s="1">
-        <v>4.657436</v>
+        <v>4.6574359999999997</v>
       </c>
       <c r="C22" s="1">
-        <v>1140.740000</v>
+        <v>1140.74</v>
       </c>
       <c r="D22" s="1">
-        <v>-257.345000</v>
+        <v>-257.34500000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>16776.898781</v>
       </c>
       <c r="G22" s="1">
-        <v>4.660250</v>
+        <v>4.6602499999999996</v>
       </c>
       <c r="H22" s="1">
-        <v>1161.600000</v>
+        <v>1161.5999999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-215.266000</v>
+        <v>-215.26599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>16787.725950</v>
+        <v>16787.72595</v>
       </c>
       <c r="L22" s="1">
-        <v>4.663257</v>
+        <v>4.6632569999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>1188.380000</v>
+        <v>1188.3800000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.352000</v>
+        <v>-149.352</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>16798.319505</v>
+        <v>16798.319504999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.666200</v>
+        <v>4.6661999999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1195.880000</v>
+        <v>1195.8800000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.285000</v>
+        <v>-127.285</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>16808.799512</v>
+        <v>16808.799512000001</v>
       </c>
       <c r="V22" s="1">
         <v>4.669111</v>
       </c>
       <c r="W22" s="1">
-        <v>1202.650000</v>
+        <v>1202.6500000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.504000</v>
+        <v>-106.504</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>16818.969973</v>
+        <v>16818.969972999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.671936</v>
+        <v>4.6719359999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>1209.810000</v>
+        <v>1209.81</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.760500</v>
+        <v>-89.760499999999993</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>16829.456855</v>
@@ -5711,240 +6127,240 @@
         <v>4.674849</v>
       </c>
       <c r="AG22" s="1">
-        <v>1214.190000</v>
+        <v>1214.19</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.430500</v>
+        <v>-85.430499999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>16839.925913</v>
+        <v>16839.925912999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.677757</v>
+        <v>4.6777569999999997</v>
       </c>
       <c r="AL22" s="1">
-        <v>1221.200000</v>
+        <v>1221.2</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.945500</v>
+        <v>-88.945499999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>16850.773419</v>
+        <v>16850.773419000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.680770</v>
+        <v>4.6807699999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1229.020000</v>
+        <v>1229.02</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.277000</v>
+        <v>-101.277</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>16862.231510</v>
+        <v>16862.231510000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.683953</v>
+        <v>4.6839529999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1238.930000</v>
+        <v>1238.93</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.680000</v>
+        <v>-120.68</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>16873.257597</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.687016</v>
+        <v>4.6870159999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1247.370000</v>
+        <v>1247.3699999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.188000</v>
+        <v>-138.18799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>16884.304958</v>
+        <v>16884.304958000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.690085</v>
+        <v>4.6900849999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1287.330000</v>
+        <v>1287.33</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.219000</v>
+        <v>-220.21899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>16895.685663</v>
       </c>
       <c r="BJ22" s="1">
-        <v>4.693246</v>
+        <v>4.6932460000000003</v>
       </c>
       <c r="BK22" s="1">
-        <v>1356.700000</v>
+        <v>1356.7</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.086000</v>
+        <v>-357.08600000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>16905.924578</v>
+        <v>16905.924577999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.696090</v>
+        <v>4.6960899999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1470.530000</v>
+        <v>1470.53</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.169000</v>
+        <v>-580.16899999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>16917.246260</v>
+        <v>16917.24626</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.699235</v>
+        <v>4.6992349999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1602.390000</v>
+        <v>1602.39</v>
       </c>
       <c r="BV22" s="1">
-        <v>-832.268000</v>
+        <v>-832.26800000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>16928.108149</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.702252</v>
+        <v>4.7022519999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1753.970000</v>
+        <v>1753.97</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1107.450000</v>
+        <v>-1107.45</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>16941.016068</v>
+        <v>16941.016068000001</v>
       </c>
       <c r="CD22" s="1">
         <v>4.705838</v>
       </c>
       <c r="CE22" s="1">
-        <v>2173.970000</v>
+        <v>2173.9699999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1774.930000</v>
+        <v>-1774.93</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>16767.111227</v>
+        <v>16767.111227000001</v>
       </c>
       <c r="B23" s="1">
-        <v>4.657531</v>
+        <v>4.6575309999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>1140.680000</v>
+        <v>1140.68</v>
       </c>
       <c r="D23" s="1">
-        <v>-257.313000</v>
+        <v>-257.31299999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>16777.243005</v>
       </c>
       <c r="G23" s="1">
-        <v>4.660345</v>
+        <v>4.6603450000000004</v>
       </c>
       <c r="H23" s="1">
-        <v>1161.510000</v>
+        <v>1161.51</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.751000</v>
+        <v>-215.751</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>16788.142094</v>
+        <v>16788.142093999999</v>
       </c>
       <c r="L23" s="1">
         <v>4.663373</v>
       </c>
       <c r="M23" s="1">
-        <v>1188.620000</v>
+        <v>1188.6199999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.930000</v>
+        <v>-148.93</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>16798.610160</v>
+        <v>16798.61016</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.666281</v>
+        <v>4.6662809999999997</v>
       </c>
       <c r="R23" s="1">
-        <v>1195.820000</v>
+        <v>1195.82</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.253000</v>
+        <v>-127.253</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>16809.080210</v>
+        <v>16809.08021</v>
       </c>
       <c r="V23" s="1">
-        <v>4.669189</v>
+        <v>4.6691890000000003</v>
       </c>
       <c r="W23" s="1">
-        <v>1202.800000</v>
+        <v>1202.8</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.423000</v>
+        <v>-106.423</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>16819.320614</v>
@@ -5953,632 +6369,632 @@
         <v>4.672034</v>
       </c>
       <c r="AB23" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.669100</v>
+        <v>-89.6691</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>16829.799591</v>
+        <v>16829.799590999999</v>
       </c>
       <c r="AF23" s="1">
         <v>4.674944</v>
       </c>
       <c r="AG23" s="1">
-        <v>1214.330000</v>
+        <v>1214.33</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.266500</v>
+        <v>-85.266499999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>16840.274632</v>
+        <v>16840.274632000001</v>
       </c>
       <c r="AK23" s="1">
         <v>4.677854</v>
       </c>
       <c r="AL23" s="1">
-        <v>1221.190000</v>
+        <v>1221.19</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.951400</v>
+        <v>-88.951400000000007</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>16851.498585</v>
+        <v>16851.498585000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.680972</v>
+        <v>4.6809719999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1229.000000</v>
+        <v>1229</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.263000</v>
+        <v>-101.26300000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>16862.613447</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.684059</v>
+        <v>4.6840590000000004</v>
       </c>
       <c r="AV23" s="1">
-        <v>1238.940000</v>
+        <v>1238.94</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.688000</v>
+        <v>-120.688</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>16873.617696</v>
+        <v>16873.617696000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.687116</v>
+        <v>4.6871159999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1247.350000</v>
+        <v>1247.3499999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.167000</v>
+        <v>-138.167</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>16884.664589</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.690185</v>
+        <v>4.6901849999999996</v>
       </c>
       <c r="BF23" s="1">
-        <v>1287.360000</v>
+        <v>1287.3599999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.225000</v>
+        <v>-220.22499999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>16896.361818</v>
+        <v>16896.361818000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.693434</v>
+        <v>4.6934339999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1356.680000</v>
+        <v>1356.68</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.068000</v>
+        <v>-357.06799999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>16906.623441</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.696284</v>
+        <v>4.6962840000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1470.560000</v>
+        <v>1470.56</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.203000</v>
+        <v>-580.20299999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>16917.372243</v>
+        <v>16917.372243000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.699270</v>
+        <v>4.6992700000000003</v>
       </c>
       <c r="BU23" s="1">
-        <v>1602.360000</v>
+        <v>1602.36</v>
       </c>
       <c r="BV23" s="1">
-        <v>-832.360000</v>
+        <v>-832.36</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>16928.351222</v>
+        <v>16928.351222000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.702320</v>
+        <v>4.7023200000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1753.880000</v>
+        <v>1753.88</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1107.470000</v>
+        <v>-1107.47</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>16941.537362</v>
+        <v>16941.537361999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.705983</v>
+        <v>4.7059829999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>2172.410000</v>
+        <v>2172.41</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1774.390000</v>
+        <v>-1774.39</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>16767.532330</v>
+        <v>16767.532329999998</v>
       </c>
       <c r="B24" s="1">
         <v>4.657648</v>
       </c>
       <c r="C24" s="1">
-        <v>1140.970000</v>
+        <v>1140.97</v>
       </c>
       <c r="D24" s="1">
-        <v>-257.344000</v>
+        <v>-257.34399999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>16777.942897</v>
+        <v>16777.942897000001</v>
       </c>
       <c r="G24" s="1">
-        <v>4.660540</v>
+        <v>4.6605400000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1161.970000</v>
+        <v>1161.97</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.258000</v>
+        <v>-215.25800000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>16788.435229</v>
+        <v>16788.435228999999</v>
       </c>
       <c r="L24" s="1">
-        <v>4.663454</v>
+        <v>4.6634539999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1188.170000</v>
+        <v>1188.17</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.540000</v>
+        <v>-149.54</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>16798.957862</v>
+        <v>16798.957861999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.666377</v>
+        <v>4.6663769999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1195.830000</v>
+        <v>1195.83</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.221000</v>
+        <v>-127.221</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>16809.426417</v>
+        <v>16809.426416999999</v>
       </c>
       <c r="V24" s="1">
-        <v>4.669285</v>
+        <v>4.6692850000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>1202.760000</v>
+        <v>1202.76</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.633000</v>
+        <v>-106.633</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>16819.668895</v>
+        <v>16819.668894999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.672130</v>
+        <v>4.6721300000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1209.910000</v>
+        <v>1209.9100000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.706700</v>
+        <v>-89.706699999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>16830.487047</v>
+        <v>16830.487046999999</v>
       </c>
       <c r="AF24" s="1">
         <v>4.675135</v>
       </c>
       <c r="AG24" s="1">
-        <v>1214.500000</v>
+        <v>1214.5</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.179900</v>
+        <v>-85.179900000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>16840.971512</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.678048</v>
+        <v>4.6780480000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>1221.190000</v>
+        <v>1221.19</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.965700</v>
+        <v>-88.965699999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>16851.876522</v>
+        <v>16851.876521999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.681077</v>
+        <v>4.6810770000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1229.000000</v>
+        <v>1229</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.269000</v>
+        <v>-101.26900000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>16862.975995</v>
+        <v>16862.975995000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.684160</v>
+        <v>4.6841600000000003</v>
       </c>
       <c r="AV24" s="1">
-        <v>1238.940000</v>
+        <v>1238.94</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.638000</v>
+        <v>-120.63800000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>16873.976766</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.687216</v>
+        <v>4.6872160000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1247.330000</v>
+        <v>1247.33</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.176000</v>
+        <v>-138.17599999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>16885.337133</v>
+        <v>16885.337133000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.690371</v>
+        <v>4.6903709999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1287.350000</v>
+        <v>1287.3499999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.233000</v>
+        <v>-220.233</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>16896.469838</v>
+        <v>16896.469838000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.693464</v>
+        <v>4.6934639999999996</v>
       </c>
       <c r="BK24" s="1">
-        <v>1356.700000</v>
+        <v>1356.7</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.099000</v>
+        <v>-357.09899999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>16906.740993</v>
+        <v>16906.740992999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.696317</v>
+        <v>4.6963169999999996</v>
       </c>
       <c r="BP24" s="1">
-        <v>1470.580000</v>
+        <v>1470.58</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.162000</v>
+        <v>-580.16200000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>16917.813186</v>
+        <v>16917.813185999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.699393</v>
+        <v>4.6993929999999997</v>
       </c>
       <c r="BU24" s="1">
-        <v>1602.480000</v>
+        <v>1602.48</v>
       </c>
       <c r="BV24" s="1">
-        <v>-832.418000</v>
+        <v>-832.41800000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>16928.785220</v>
+        <v>16928.785220000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.702440</v>
+        <v>4.7024400000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1753.890000</v>
+        <v>1753.89</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1107.350000</v>
+        <v>-1107.3499999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>16942.054690</v>
+        <v>16942.054690000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.706126</v>
+        <v>4.7061260000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>2172.030000</v>
+        <v>2172.0300000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1776.030000</v>
+        <v>-1776.03</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>16767.809128</v>
+        <v>16767.809128000001</v>
       </c>
       <c r="B25" s="1">
-        <v>4.657725</v>
+        <v>4.6577250000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1140.510000</v>
+        <v>1140.51</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.250000</v>
+        <v>-257.25</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>16778.289066</v>
+        <v>16778.289066000001</v>
       </c>
       <c r="G25" s="1">
-        <v>4.660636</v>
+        <v>4.6606360000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1162.280000</v>
+        <v>1162.28</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.319000</v>
+        <v>-215.31899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>16788.780941</v>
+        <v>16788.780941000001</v>
       </c>
       <c r="L25" s="1">
-        <v>4.663550</v>
+        <v>4.6635499999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1188.400000</v>
+        <v>1188.4000000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.189000</v>
+        <v>-149.18899999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>16799.308569</v>
+        <v>16799.308569000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.666475</v>
+        <v>4.6664750000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.214000</v>
+        <v>-127.214</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>16809.773121</v>
+        <v>16809.773120999998</v>
       </c>
       <c r="V25" s="1">
-        <v>4.669381</v>
+        <v>4.6693809999999996</v>
       </c>
       <c r="W25" s="1">
-        <v>1202.690000</v>
+        <v>1202.69</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.476000</v>
+        <v>-106.476</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>16820.366707</v>
+        <v>16820.366707000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.672324</v>
+        <v>4.6723239999999997</v>
       </c>
       <c r="AB25" s="1">
-        <v>1209.890000</v>
+        <v>1209.8900000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.664700</v>
+        <v>-89.664699999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>16830.834482</v>
+        <v>16830.834481999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.675232</v>
+        <v>4.6752320000000003</v>
       </c>
       <c r="AG25" s="1">
-        <v>1214.300000</v>
+        <v>1214.3</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.405800</v>
+        <v>-85.405799999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>16841.320664</v>
+        <v>16841.320663999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.678145</v>
+        <v>4.6781449999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1221.200000</v>
+        <v>1221.2</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.951300</v>
+        <v>-88.951300000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>16852.235652</v>
+        <v>16852.235651999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.681177</v>
+        <v>4.6811769999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1229.000000</v>
+        <v>1229</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.261000</v>
+        <v>-101.261</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>16863.661962</v>
+        <v>16863.661961999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.684351</v>
+        <v>4.6843510000000004</v>
       </c>
       <c r="AV25" s="1">
-        <v>1238.930000</v>
+        <v>1238.93</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.659000</v>
+        <v>-120.65900000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>16874.649371</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.687403</v>
+        <v>4.6874029999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1247.380000</v>
+        <v>1247.3800000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.201000</v>
+        <v>-138.20099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>16885.778587</v>
+        <v>16885.778587000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.690494</v>
+        <v>4.6904940000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1287.340000</v>
+        <v>1287.3399999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.209000</v>
+        <v>-220.209</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>16896.835886</v>
+        <v>16896.835886000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.693566</v>
+        <v>4.6935659999999997</v>
       </c>
       <c r="BK25" s="1">
-        <v>1356.710000</v>
+        <v>1356.71</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.023000</v>
+        <v>-357.02300000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>16907.160883</v>
@@ -6587,317 +7003,318 @@
         <v>4.696434</v>
       </c>
       <c r="BP25" s="1">
-        <v>1470.590000</v>
+        <v>1470.59</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.171000</v>
+        <v>-580.17100000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>16918.240772</v>
+        <v>16918.240772000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.699511</v>
+        <v>4.6995110000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1602.430000</v>
+        <v>1602.43</v>
       </c>
       <c r="BV25" s="1">
-        <v>-832.538000</v>
+        <v>-832.53800000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>16929.241508</v>
+        <v>16929.241507999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.702567</v>
+        <v>4.7025670000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1753.840000</v>
+        <v>1753.84</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1107.470000</v>
+        <v>-1107.47</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>16942.573970</v>
+        <v>16942.573970000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.706271</v>
+        <v>4.7062710000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2173.730000</v>
+        <v>2173.73</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1776.610000</v>
+        <v>-1776.61</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>16768.150381</v>
+        <v>16768.150380999999</v>
       </c>
       <c r="B26" s="1">
-        <v>4.657820</v>
+        <v>4.6578200000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1140.840000</v>
+        <v>1140.8399999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-257.761000</v>
+        <v>-257.76100000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>16778.632794</v>
+        <v>16778.632794000001</v>
       </c>
       <c r="G26" s="1">
-        <v>4.660731</v>
+        <v>4.6607310000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1161.920000</v>
+        <v>1161.92</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.225000</v>
+        <v>-215.22499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>16789.126156</v>
+        <v>16789.126155999998</v>
       </c>
       <c r="L26" s="1">
         <v>4.663646</v>
       </c>
       <c r="M26" s="1">
-        <v>1188.170000</v>
+        <v>1188.17</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.179000</v>
+        <v>-149.179</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>16800.003757</v>
+        <v>16800.003756999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.666668</v>
+        <v>4.6666679999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>1195.900000</v>
+        <v>1195.9000000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.237000</v>
+        <v>-127.23699999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>16810.462561</v>
       </c>
       <c r="V26" s="1">
-        <v>4.669573</v>
+        <v>4.6695729999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1202.790000</v>
+        <v>1202.79</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.429000</v>
+        <v>-106.429</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>16820.716851</v>
+        <v>16820.716851000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.672421</v>
+        <v>4.6724209999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1209.670000</v>
+        <v>1209.67</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.654600</v>
+        <v>-89.654600000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>16831.172517</v>
+        <v>16831.172516999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.675326</v>
+        <v>4.6753260000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1214.320000</v>
+        <v>1214.32</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.609100</v>
+        <v>-85.609099999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>16841.672856</v>
+        <v>16841.672856000001</v>
       </c>
       <c r="AK26" s="1">
         <v>4.678242</v>
       </c>
       <c r="AL26" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.947800</v>
+        <v>-88.947800000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>16852.908728</v>
+        <v>16852.908727999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.681364</v>
+        <v>4.6813640000000003</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1229.010000</v>
+        <v>1229.01</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.244000</v>
+        <v>-101.244</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>16864.101417</v>
+        <v>16864.101417000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.684473</v>
+        <v>4.6844729999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>1238.920000</v>
+        <v>1238.92</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.652000</v>
+        <v>-120.652</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>16875.085324</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.687524</v>
+        <v>4.6875239999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1247.350000</v>
+        <v>1247.3499999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.198000</v>
+        <v>-138.19800000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>16886.139164</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.690594</v>
+        <v>4.6905939999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1287.340000</v>
+        <v>1287.3399999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.220000</v>
+        <v>-220.22</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>16897.209373</v>
+        <v>16897.209373000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.693669</v>
+        <v>4.6936689999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1356.690000</v>
+        <v>1356.69</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.063000</v>
+        <v>-357.06299999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>16907.560386</v>
+        <v>16907.560386000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.696545</v>
+        <v>4.6965450000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1470.520000</v>
+        <v>1470.52</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.175000</v>
+        <v>-580.17499999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>16918.649938</v>
+        <v>16918.649937999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.699625</v>
+        <v>4.6996250000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1602.470000</v>
+        <v>1602.47</v>
       </c>
       <c r="BV26" s="1">
-        <v>-832.745000</v>
+        <v>-832.745</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>16929.691384</v>
+        <v>16929.691384000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.702692</v>
+        <v>4.7026919999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1753.770000</v>
+        <v>1753.77</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1107.560000</v>
+        <v>-1107.56</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>16943.087857</v>
+        <v>16943.087856999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.706413</v>
+        <v>4.7064130000000004</v>
       </c>
       <c r="CE26" s="1">
-        <v>2173.610000</v>
+        <v>2173.61</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1776.830000</v>
+        <v>-1776.83</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>